--- a/R/data/food_plan_231030.xlsx
+++ b/R/data/food_plan_231030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B632814-AC15-8B41-980A-A993CAF37389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542A5403-94A7-D344-8AFD-BF1E52A369EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47940" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5936" uniqueCount="612">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1148,6 +1148,714 @@
   </si>
   <si>
     <t>박준영</t>
+  </si>
+  <si>
+    <t>rkdus0413@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>seohyojeong123@gmail.com</t>
+  </si>
+  <si>
+    <t>서효정</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>yewon6501@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식품영양학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">박예원 </t>
+  </si>
+  <si>
+    <t>phyi0915@naver.com</t>
+  </si>
+  <si>
+    <t>백승진</t>
+  </si>
+  <si>
+    <t>rlaekdp1505@naver.com</t>
+  </si>
+  <si>
+    <t>김다예</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>mukyx00@naver.com</t>
+  </si>
+  <si>
+    <t>엄찬우</t>
+  </si>
+  <si>
+    <t>tpdls1323@naver.com</t>
+  </si>
+  <si>
+    <t>장세인</t>
+  </si>
+  <si>
+    <t>bluejjun619@naver.com</t>
+  </si>
+  <si>
+    <t>윤영준</t>
+  </si>
+  <si>
+    <t>hytree22@naver.com</t>
+  </si>
+  <si>
+    <t>신하영</t>
+  </si>
+  <si>
+    <t>jmc0122@naver.com</t>
+  </si>
+  <si>
+    <t>정원혁</t>
+  </si>
+  <si>
+    <t>whtjsals159@naver.com</t>
+  </si>
+  <si>
+    <t>조선민</t>
+  </si>
+  <si>
+    <t>ymun018@naver.com</t>
+  </si>
+  <si>
+    <t>문윤식</t>
+  </si>
+  <si>
+    <t>kimsemin3@naver.com</t>
+  </si>
+  <si>
+    <t>김세민</t>
+  </si>
+  <si>
+    <t>heeyeon_02@naver.com</t>
+  </si>
+  <si>
+    <t>이희연</t>
+  </si>
+  <si>
+    <t>gusdud0627@naver.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 콘텐츠IT</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>wkdtngus2001@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학과</t>
+  </si>
+  <si>
+    <t>장수현</t>
+  </si>
+  <si>
+    <t>guseons__@naver.com</t>
+  </si>
+  <si>
+    <t>반도체전공</t>
+  </si>
+  <si>
+    <t>구선화</t>
+  </si>
+  <si>
+    <t>leetaeyang00@gmail.com</t>
+  </si>
+  <si>
+    <t>이태양</t>
+  </si>
+  <si>
+    <t>20223614@sdhs.gwe.hs.kr</t>
+  </si>
+  <si>
+    <t>윤태웅</t>
+  </si>
+  <si>
+    <t>lsjlol1264@naver.com</t>
+  </si>
+  <si>
+    <t>이세진</t>
+  </si>
+  <si>
+    <t>mhw040414@naver.com</t>
+  </si>
+  <si>
+    <t>문희원</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>wlsgml9808@naver.com</t>
+  </si>
+  <si>
+    <t>이진희</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>kimcylove@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>yantaijin1@naver.com</t>
+  </si>
+  <si>
+    <t>박종진</t>
+  </si>
+  <si>
+    <t>030223cho@naver.com</t>
+  </si>
+  <si>
+    <t>조성진</t>
+  </si>
+  <si>
+    <t>donghyunkim0404@naver.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>ridsigdog@gmail.com</t>
+  </si>
+  <si>
+    <t>박건민</t>
+  </si>
+  <si>
+    <t>memo0103@naver.com</t>
+  </si>
+  <si>
+    <t>안현서</t>
+  </si>
+  <si>
+    <t>phg1242@naver.com</t>
+  </si>
+  <si>
+    <t>박효근</t>
+  </si>
+  <si>
+    <t>suin207846@naver.com</t>
+  </si>
+  <si>
+    <t>안수인</t>
+  </si>
+  <si>
+    <t>fkdldjs0322@naver.com</t>
+  </si>
+  <si>
+    <t>이지희</t>
+  </si>
+  <si>
+    <t>hyeeun7356@naver.com</t>
+  </si>
+  <si>
+    <t>유혜은</t>
+  </si>
+  <si>
+    <t>h20206619@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>신현경</t>
+  </si>
+  <si>
+    <t>ssb060333@gmail.com</t>
+  </si>
+  <si>
+    <t>신수빈</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
+  </si>
+  <si>
+    <t>yonj2sj@naver.com</t>
+  </si>
+  <si>
+    <t>양은채</t>
+  </si>
+  <si>
+    <t>lsk8424@naver.com</t>
+  </si>
+  <si>
+    <t>이상기</t>
+  </si>
+  <si>
+    <t>hyeoni072812@naver.com</t>
+  </si>
+  <si>
+    <t>임서현</t>
+  </si>
+  <si>
+    <t>drmiso526@naver.com</t>
+  </si>
+  <si>
+    <t>김세중</t>
+  </si>
+  <si>
+    <t>hmuc1smoker@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>서정원</t>
+  </si>
+  <si>
+    <t>kimtaejin3882@gmail.com</t>
+  </si>
+  <si>
+    <t>김태진</t>
+  </si>
+  <si>
+    <t>yenaridia@naver.com</t>
+  </si>
+  <si>
+    <t>최예나</t>
+  </si>
+  <si>
+    <t>yjh110951@gmail.com</t>
+  </si>
+  <si>
+    <t>유정훈</t>
+  </si>
+  <si>
+    <t>minzero523@naver.com</t>
+  </si>
+  <si>
+    <t>동민영</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>fodhzks1@naver.com</t>
+  </si>
+  <si>
+    <t>환경생명공학학과</t>
+  </si>
+  <si>
+    <t>dbswlals0326@naver.com</t>
+  </si>
+  <si>
+    <t>윤지민</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
+  </si>
+  <si>
+    <t>sharkyminzz@gmail.com</t>
+  </si>
+  <si>
+    <t>서민형</t>
+  </si>
+  <si>
+    <t>rbgjs65@gmail.com</t>
+  </si>
+  <si>
+    <t>샘명과학과</t>
+  </si>
+  <si>
+    <t>김규헌</t>
+  </si>
+  <si>
+    <t>ohj09170@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿨</t>
+  </si>
+  <si>
+    <t>오현진</t>
+  </si>
+  <si>
+    <t>lsh0409210@gmail.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>limhyoeun8698@naver.com</t>
+  </si>
+  <si>
+    <t>임효은</t>
+  </si>
+  <si>
+    <t>ekgus0916@naver.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>lhj040512@naver.com</t>
+  </si>
+  <si>
+    <t>이현종</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>pgw0814@gmail.com</t>
+  </si>
+  <si>
+    <t>박지우</t>
+  </si>
+  <si>
+    <t>dndbql123@naver.com</t>
+  </si>
+  <si>
+    <t>전유비</t>
+  </si>
+  <si>
+    <t>qndks2129@naver.com</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>20233825@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>엄서현</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>0000fire74@gmail.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>a01031309196@gmail.com</t>
+  </si>
+  <si>
+    <t>광고홍보</t>
+  </si>
+  <si>
+    <t>김현채</t>
+  </si>
+  <si>
+    <t>sang010516@naver.com</t>
+  </si>
+  <si>
+    <t>최상은</t>
+  </si>
+  <si>
+    <t>tjtmdwns3504@gmail.com</t>
+  </si>
+  <si>
+    <t>서승준</t>
+  </si>
+  <si>
+    <t>sally4417776@naver.com</t>
+  </si>
+  <si>
+    <t>안세연</t>
+  </si>
+  <si>
+    <t>kimcr0678@gmail.com</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>junesumin12@naver.com</t>
+  </si>
+  <si>
+    <t>전수민</t>
+  </si>
+  <si>
+    <t>mhkimghrhkd@naver.com</t>
+  </si>
+  <si>
+    <t>김민혁</t>
+  </si>
+  <si>
+    <t>audri01@naver.com</t>
+  </si>
+  <si>
+    <t>이승아</t>
+  </si>
+  <si>
+    <t>kkhe2370@naver.com</t>
+  </si>
+  <si>
+    <t>전혜린</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>lucky021217@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>pig6832@naver.com</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>tmdals7205@gmail.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 소프트웨어융합 스마트IOT</t>
+  </si>
+  <si>
+    <t>박승민</t>
+  </si>
+  <si>
+    <t>tlsrkdms12345@naver.com</t>
+  </si>
+  <si>
+    <t>신가은</t>
+  </si>
+  <si>
+    <t>lia129@naver.com</t>
+  </si>
+  <si>
+    <t>노효은</t>
+  </si>
+  <si>
+    <t>heejae7942@naver.com</t>
+  </si>
+  <si>
+    <t>최희재</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>dong9mi24k@naver.com</t>
+  </si>
+  <si>
+    <t>이동금</t>
+  </si>
+  <si>
+    <t>wjdfkgus1020@naver.com</t>
+  </si>
+  <si>
+    <t>정라현</t>
+  </si>
+  <si>
+    <t>poliku8630@naver.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT</t>
+  </si>
+  <si>
+    <t>심지혁</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>cheis11@naver.com</t>
+  </si>
+  <si>
+    <t>김찬호</t>
+  </si>
+  <si>
+    <t>ga89193234@gmail.com</t>
+  </si>
+  <si>
+    <t>김경아</t>
+  </si>
+  <si>
+    <t>u01022994088@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어융합학과</t>
+  </si>
+  <si>
+    <t>구광모</t>
+  </si>
+  <si>
+    <t>cyurim3@gmail.com</t>
+  </si>
+  <si>
+    <t>최유림</t>
+  </si>
+  <si>
+    <t>jinhwanjeong8@gmail.com</t>
+  </si>
+  <si>
+    <t>정진환</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
+  </si>
+  <si>
+    <t>dlekals56@gmail.com</t>
+  </si>
+  <si>
+    <t>이다민</t>
+  </si>
+  <si>
+    <t>chominseo1029@naver.com</t>
+  </si>
+  <si>
+    <t>조민서</t>
+  </si>
+  <si>
+    <t>jaejae7070@naver.com</t>
+  </si>
+  <si>
+    <t>이재빈</t>
+  </si>
+  <si>
+    <t>citchchache@gmail.com</t>
+  </si>
+  <si>
+    <t>공병우</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>20225169@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>배승유</t>
+  </si>
+  <si>
+    <t>mys714@naver.com</t>
+  </si>
+  <si>
+    <t>문예슬</t>
   </si>
 </sst>
 </file>
@@ -1421,11 +2129,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y147"/>
+  <dimension ref="A1:Y258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F264" sqref="F264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12752,6 +13460,8553 @@
         <v>30</v>
       </c>
     </row>
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2">
+        <v>45231.470485219907</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20236168</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y148" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
+        <v>45231.473961354168</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D149" s="1">
+        <v>20226622</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y149" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>45231.488929907406</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D150" s="1">
+        <v>20232817</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y150" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>45231.489696435186</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D151" s="1">
+        <v>20223817</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y151" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
+        <v>45231.520278530093</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D152" s="1">
+        <v>20232967</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y152" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
+        <v>45231.520453067133</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" s="1">
+        <v>20222908</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
+        <v>45231.5604155787</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" s="1">
+        <v>20202513</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y154" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
+        <v>45231.561310879624</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20202355</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y155" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2">
+        <v>45231.602809768519</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D156" s="1">
+        <v>20202547</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y156" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2">
+        <v>45231.603702731481</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20233245</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y157" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2">
+        <v>45231.614028136573</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D158" s="1">
+        <v>20226758</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y158" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2">
+        <v>45231.616080370368</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20232724</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y159" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="2">
+        <v>45231.625117037038</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D160" s="1">
+        <v>20173057</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>45231.636344270832</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D161" s="1">
+        <v>20236778</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2">
+        <v>45231.645021886579</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20235160</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y162" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>45231.651049247681</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163" s="1">
+        <v>20233607</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y163" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>45231.65440615741</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" s="1">
+        <v>20231536</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W164" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y164" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
+        <v>45231.670480046298</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D165" s="1">
+        <v>20205246</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y165" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>45231.698666412034</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D166" s="1">
+        <v>20201090</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>45231.715317476854</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D167" s="1">
+        <v>20203301</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y167" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2">
+        <v>45231.719543252315</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D168" s="1">
+        <v>20236764</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y168" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2">
+        <v>45231.738271759255</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="1">
+        <v>20235220</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y169" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2">
+        <v>45231.765917442128</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20182941</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y170" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>45231.800831643515</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20231610</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y171" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2">
+        <v>45231.803842395835</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20226423</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W172" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y172" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2">
+        <v>45231.814122812502</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20173728</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y173" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2">
+        <v>45231.830595254629</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20232706</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y174" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2">
+        <v>45231.910289490741</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D175" s="1">
+        <v>20212320</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y175" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2">
+        <v>45231.92085440972</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20215154</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>45231.936486481485</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="1">
+        <v>20191517</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="2">
+        <v>45231.948192430558</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20231235</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y178" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2">
+        <v>45231.958744976851</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D179" s="1">
+        <v>20232204</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y179" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2">
+        <v>45231.97227820602</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D180" s="1">
+        <v>20202816</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y180" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2">
+        <v>45231.985720659723</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D181" s="1">
+        <v>20236142</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y181" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="2">
+        <v>45231.986598043979</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D182" s="1">
+        <v>20193926</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y182" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="2">
+        <v>45232.001600671298</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" s="1">
+        <v>20222977</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y183" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="2">
+        <v>45232.012606770833</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184" s="1">
+        <v>20231075</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y184" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2">
+        <v>45232.021080254628</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D185" s="1">
+        <v>20203824</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y185" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="2">
+        <v>45232.034749293976</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D186" s="1">
+        <v>20206619</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y186" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="2">
+        <v>45232.038201319447</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D187" s="1">
+        <v>20222614</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y187" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="2">
+        <v>45232.046809131949</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D188" s="1">
+        <v>20233960</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U188" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W188" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X188" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y188" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>45232.049276458332</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D189" s="1">
+        <v>20236742</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y189" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>45232.354573125005</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D190" s="1">
+        <v>20172428</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W190" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y190" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>45232.380697141205</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D191" s="1">
+        <v>20233426</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y191" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>45232.381921493055</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D192" s="1">
+        <v>20192310</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y192" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="2">
+        <v>45232.444618645837</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D193" s="1">
+        <v>20217146</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y193" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2">
+        <v>45232.448304999998</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D194" s="1">
+        <v>20232939</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y194" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="2">
+        <v>45232.452131180558</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" s="1">
+        <v>20201634</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y195" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="2">
+        <v>45232.482898599541</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" s="1">
+        <v>20232995</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V196" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y196" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="2">
+        <v>45232.508712222218</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" s="1">
+        <v>20212945</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y197" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="2">
+        <v>45232.520594976857</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D198" s="1">
+        <v>20196621</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T198" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U198" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y198" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="2">
+        <v>45232.550984629634</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D199" s="1">
+        <v>20233728</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y199" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="2">
+        <v>45232.593696631942</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D200" s="1">
+        <v>20235219</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y200" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="2">
+        <v>45232.597815844907</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" s="1">
+        <v>20202741</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R201" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V201" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X201" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y201" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="2">
+        <v>45232.598130833328</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D202" s="1">
+        <v>20236136</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R202" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V202" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y202" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="2">
+        <v>45232.599197372685</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D203" s="1">
+        <v>20203501</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T203" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y203" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="2">
+        <v>45232.600715497683</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D204" s="1">
+        <v>20232555</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y204" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="2">
+        <v>45232.604724826393</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D205" s="1">
+        <v>20233726</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W205" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X205" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y205" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="2">
+        <v>45232.604732997686</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D206" s="1">
+        <v>20233409</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y206" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="2">
+        <v>45232.60718471065</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D207" s="1">
+        <v>20232572</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R207" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S207" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T207" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U207" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V207" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W207" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X207" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y207" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="2">
+        <v>45232.640295335645</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D208" s="1">
+        <v>20217125</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S208" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T208" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V208" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X208" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y208" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="2">
+        <v>45232.652099537037</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D209" s="1">
+        <v>20233424</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W209" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X209" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y209" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2">
+        <v>45232.653056006944</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D210" s="1">
+        <v>20171078</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T210" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U210" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y210" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2">
+        <v>45232.694335810185</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D211" s="1">
+        <v>20203409</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U211" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y211" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="2">
+        <v>45232.714727754632</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D212" s="1">
+        <v>20232574</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P212" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y212" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="2">
+        <v>45232.744992476852</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D213" s="1">
+        <v>20232617</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P213" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T213" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U213" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y213" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="2">
+        <v>45232.766124085647</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D214" s="1">
+        <v>20233825</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R214" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T214" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U214" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V214" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W214" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X214" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y214" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="2">
+        <v>45232.774808321759</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D215" s="1">
+        <v>20233410</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y215" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="2">
+        <v>45232.855618703703</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D216" s="1">
+        <v>20201606</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y216" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="2">
+        <v>45232.856104930557</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D217" s="1">
+        <v>20234121</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y217" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="2">
+        <v>45232.867380254625</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D218" s="1">
+        <v>20231004</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V218" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W218" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X218" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y218" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="2">
+        <v>45232.876706527779</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D219" s="1">
+        <v>20183831</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P219" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y219" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="2">
+        <v>45232.909787974539</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D220" s="1">
+        <v>20232609</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V220" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W220" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y220" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="2">
+        <v>45232.927463657412</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D221" s="1">
+        <v>20202851</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y221" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="2">
+        <v>45232.928942060185</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D222" s="1">
+        <v>20202331</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P222" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R222" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S222" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T222" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V222" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y222" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="2">
+        <v>45232.938897361106</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D223" s="1">
+        <v>20236257</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S223" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y223" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="2">
+        <v>45232.941391261571</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D224" s="1">
+        <v>20236230</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M224" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N224" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W224" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y224" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="2">
+        <v>45232.947836527776</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D225" s="1">
+        <v>20233962</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P225" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y225" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="2">
+        <v>45232.950726712967</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D226" s="1">
+        <v>20231203</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P226" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R226" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U226" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W226" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y226" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="2">
+        <v>45232.95858875</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D227" s="1">
+        <v>20191530</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N227" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X227" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y227" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="2">
+        <v>45232.996486030097</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D228" s="1">
+        <v>20236210</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y228" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="2">
+        <v>45233.017928518515</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D229" s="1">
+        <v>20236289</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y229" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="2">
+        <v>45233.135712210649</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D230" s="1">
+        <v>20204110</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R230" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S230" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y230" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <v>45233.399329305554</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D231" s="1">
+        <v>20203639</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S231" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T231" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U231" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V231" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y231" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="2">
+        <v>45233.423141886575</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D232" s="1">
+        <v>20202638</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R232" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y232" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="2">
+        <v>45233.438921979163</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D233" s="1">
+        <v>20232303</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y233" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="2">
+        <v>45233.526831423616</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D234" s="1">
+        <v>20212621</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y234" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="2">
+        <v>45233.540984201391</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D235" s="1">
+        <v>20232740</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P235" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R235" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S235" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T235" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U235" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V235" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W235" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X235" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y235" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="2">
+        <v>45233.562110405095</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D236" s="1">
+        <v>20195157</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V236" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W236" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y236" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="2">
+        <v>45233.563235324073</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D237" s="1">
+        <v>20217144</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P237" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X237" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y237" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="2">
+        <v>45233.567626226853</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D238" s="1">
+        <v>20217037</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P238" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R238" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S238" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T238" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U238" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V238" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W238" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X238" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y238" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="2">
+        <v>45233.598740173613</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D239" s="1">
+        <v>20232716</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R239" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U239" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y239" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="2">
+        <v>45233.622457604171</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D240" s="1">
+        <v>20236301</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P240" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y240" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="2">
+        <v>45233.634959398143</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D241" s="1">
+        <v>20222561</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y241" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="2">
+        <v>45233.635122905092</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D242" s="1">
+        <v>20232426</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P242" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U242" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V242" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y242" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="2">
+        <v>45233.664921597221</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D243" s="1">
+        <v>20232359</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q243" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X243" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y243" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="2">
+        <v>45233.682433657406</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D244" s="1">
+        <v>20205197</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P244" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q244" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R244" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S244" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T244" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U244" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V244" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W244" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X244" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y244" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="2">
+        <v>45233.686449305555</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D245" s="1">
+        <v>20194132</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P245" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q245" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R245" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S245" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T245" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U245" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V245" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W245" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X245" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y245" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="2">
+        <v>45233.698311006941</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D246" s="1">
+        <v>20195143</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q246" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y246" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="2">
+        <v>45233.708196030093</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D247" s="1">
+        <v>20231007</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y247" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="2">
+        <v>45233.736523981483</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D248" s="1">
+        <v>20225111</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y248" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="2">
+        <v>45233.738028564811</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D249" s="1">
+        <v>20222143</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q249" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R249" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S249" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T249" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U249" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V249" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W249" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X249" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y249" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="2">
+        <v>45233.752680937498</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D250" s="1">
+        <v>20236776</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y250" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="2">
+        <v>45233.753878657408</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D251" s="1">
+        <v>20192614</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y251" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="2">
+        <v>45233.767572141209</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D252" s="1">
+        <v>20211526</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q252" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y252" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="2">
+        <v>45233.774933958332</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D253" s="1">
+        <v>20233959</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P253" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q253" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R253" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S253" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T253" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U253" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V253" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W253" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X253" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y253" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="2">
+        <v>45233.775852974533</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D254" s="1">
+        <v>20221631</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y254" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="2">
+        <v>45233.80417383102</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D255" s="1">
+        <v>20235111</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y255" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="2">
+        <v>45233.813918506945</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D256" s="1">
+        <v>20192233</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q256" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R256" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S256" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T256" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U256" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V256" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W256" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X256" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y256" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="2">
+        <v>45233.825955810185</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D257" s="1">
+        <v>20225169</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q257" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R257" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y257" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="2">
+        <v>45233.846016122683</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D258" s="1">
+        <v>20191614</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q258" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R258" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S258" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T258" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U258" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V258" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W258" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X258" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y258" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/food_plan_231030.xlsx
+++ b/R/data/food_plan_231030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC6E531-79C8-BF48-AFED-5AD1EB2A6FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA4781-8F56-D147-BFE3-C099CF4B9D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="580" windowWidth="41960" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46040" yWindow="500" windowWidth="41960" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10490" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11525" uniqueCount="1116">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3105,6 +3105,270 @@
   <si>
     <t>체육학과</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>ncc11068@naver.com</t>
+  </si>
+  <si>
+    <t>이규린</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@gmail.com</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
+  </si>
+  <si>
+    <t>nic0903930@gmail.com</t>
+  </si>
+  <si>
+    <t>나임채</t>
+  </si>
+  <si>
+    <t>shonshon7@naver.com</t>
+  </si>
+  <si>
+    <t>임소연</t>
+  </si>
+  <si>
+    <t>rkqls3333@gmail.com</t>
+  </si>
+  <si>
+    <t>권가빈</t>
+  </si>
+  <si>
+    <t>dorud030406@naver.com</t>
+  </si>
+  <si>
+    <t>이예경</t>
+  </si>
+  <si>
+    <t>rian213@naver.com</t>
+  </si>
+  <si>
+    <t>안리안</t>
+  </si>
+  <si>
+    <t>choijoonhyuk1412@naver.com</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>tjgussla77@naver.com</t>
+  </si>
+  <si>
+    <t>차서현</t>
+  </si>
+  <si>
+    <t>qkrwjdwns0526@gmail.com</t>
+  </si>
+  <si>
+    <t>박정준</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>rla00604@gmail.com</t>
+  </si>
+  <si>
+    <t>김수연</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>wlals0817@naver.com</t>
+  </si>
+  <si>
+    <t>정지민</t>
+  </si>
+  <si>
+    <t>tyu7626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전한호 </t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>soekhyun7628@naver.com</t>
+  </si>
+  <si>
+    <t>김석현</t>
+  </si>
+  <si>
+    <t>dhwnsgh740@gmail.com</t>
+  </si>
+  <si>
+    <t>오준호</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>minhan3729@gmail.com</t>
+  </si>
+  <si>
+    <t>이민한</t>
+  </si>
+  <si>
+    <t>20217071@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>오선민</t>
+  </si>
+  <si>
+    <t>cje03112@gmail.com</t>
+  </si>
+  <si>
+    <t>최민석</t>
+  </si>
+  <si>
+    <t>jeongyeon256@gmail.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>isol62@naver.com</t>
+  </si>
+  <si>
+    <t>육이솔</t>
+  </si>
+  <si>
+    <t>freenix1001@naver.com</t>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>jsbaek16@gmail.com</t>
+  </si>
+  <si>
+    <t>김하선</t>
+  </si>
+  <si>
+    <t>rladbqls1728@naver.com</t>
+  </si>
+  <si>
+    <t>김유빈</t>
+  </si>
+  <si>
+    <t>pouoqjs@naver.com</t>
+  </si>
+  <si>
+    <t>서준서</t>
+  </si>
+  <si>
+    <t>rladyddus789@gmail.com</t>
+  </si>
+  <si>
+    <t>김용연</t>
+  </si>
+  <si>
+    <t>youngprinceb612@gmail.com</t>
+  </si>
+  <si>
+    <t>송원혁</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>happle0313@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영학과 </t>
+  </si>
+  <si>
+    <t>김희경</t>
+  </si>
+  <si>
+    <t>kfic0221@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합부</t>
+  </si>
+  <si>
+    <t>서동욱</t>
+  </si>
+  <si>
+    <t>tnqls06082@naver.com</t>
+  </si>
+  <si>
+    <t>조수빈</t>
   </si>
 </sst>
 </file>
@@ -3378,11 +3642,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y456"/>
+  <dimension ref="A1:Y501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C389" sqref="C389"/>
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E506" sqref="E506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -38502,6 +38766,3471 @@
         <v>30</v>
       </c>
     </row>
+    <row r="457" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="2">
+        <v>45237.968764548612</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D457" s="1">
+        <v>20236771</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J457" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K457" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L457" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M457" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N457" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O457" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y457" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="458" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="2">
+        <v>45237.982439247688</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D458" s="1">
+        <v>20233529</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J458" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K458" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L458" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M458" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N458" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O458" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R458" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y458" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="459" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="2">
+        <v>45237.986259768513</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D459" s="1">
+        <v>20212708</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O459" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P459" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q459" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R459" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S459" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T459" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U459" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V459" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W459" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X459" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y459" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="460" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="2">
+        <v>45237.986512870368</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D460" s="1">
+        <v>20182889</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J460" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K460" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L460" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M460" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N460" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O460" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q460" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S460" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T460" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U460" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y460" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="461" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="2">
+        <v>45237.990666261576</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D461" s="1">
+        <v>20222409</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O461" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q461" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R461" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S461" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T461" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U461" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V461" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y461" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="462" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="2">
+        <v>45238.030519386579</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D462" s="1">
+        <v>20231079</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y462" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="463" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="2">
+        <v>45238.06865021991</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D463" s="1">
+        <v>20236205</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P463" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y463" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="464" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="2">
+        <v>45238.07788405093</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D464" s="1">
+        <v>20222559</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M464" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N464" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O464" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y464" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="465" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="2">
+        <v>45238.375356608798</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D465" s="1">
+        <v>20233823</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L465" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M465" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N465" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O465" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q465" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W465" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X465" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y465" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="466" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="2">
+        <v>45238.545395543981</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D466" s="1">
+        <v>20232588</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K466" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L466" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M466" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N466" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O466" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y466" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="467" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="2">
+        <v>45238.562197037041</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D467" s="1">
+        <v>20185300</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K467" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L467" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M467" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N467" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O467" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X467" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y467" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="468" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="2">
+        <v>45238.586227118052</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D468" s="1">
+        <v>20236295</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O468" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y468" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="469" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="2">
+        <v>45238.602871157404</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D469" s="1">
+        <v>20236129</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M469" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N469" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y469" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="470" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="2">
+        <v>45238.611098229172</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D470" s="1">
+        <v>20226647</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K470" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N470" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y470" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="471" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="2">
+        <v>45238.634992476851</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D471" s="1">
+        <v>20233608</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N471" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O471" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y471" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="472" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="2">
+        <v>45238.675562442135</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D472" s="1">
+        <v>20205261</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K472" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L472" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O472" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S472" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T472" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U472" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V472" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W472" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X472" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y472" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="473" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="2">
+        <v>45238.739476886578</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D473" s="1">
+        <v>20201627</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K473" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L473" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M473" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N473" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O473" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y473" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="474" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="2">
+        <v>45238.749214710653</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D474" s="1">
+        <v>20232946</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O474" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y474" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="475" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="2">
+        <v>45238.770926620375</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D475" s="1">
+        <v>20232114</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y475" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="476" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="2">
+        <v>45238.778706898149</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D476" s="1">
+        <v>20233734</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O476" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R476" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S476" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V476" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W476" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X476" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y476" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="477" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="2">
+        <v>45238.838267916668</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D477" s="1">
+        <v>20232636</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O477" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q477" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W477" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X477" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y477" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="478" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="2">
+        <v>45238.905784305556</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D478" s="1">
+        <v>20232586</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K478" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O478" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y478" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="479" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="2">
+        <v>45238.92152265046</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D479" s="1">
+        <v>20232842</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P479" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q479" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T479" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U479" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V479" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W479" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X479" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y479" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="480" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="2">
+        <v>45238.985505196761</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D480" s="1">
+        <v>20236785</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K480" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L480" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M480" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N480" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O480" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W480" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y480" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="481" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="2">
+        <v>45238.993806469909</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D481" s="1">
+        <v>20233906</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K481" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L481" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N481" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O481" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q481" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W481" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X481" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y481" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="482" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="2">
+        <v>45239.033424340276</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D482" s="1">
+        <v>20223807</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M482" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O482" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q482" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R482" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y482" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="483" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="2">
+        <v>45239.37856921296</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D483" s="1">
+        <v>20216258</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q483" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W483" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X483" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y483" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="484" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="2">
+        <v>45239.441360659723</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D484" s="1">
+        <v>20236767</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O484" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T484" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V484" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y484" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="485" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="2">
+        <v>45239.471543842592</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D485" s="1">
+        <v>20182556</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W485" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y485" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="486" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="2">
+        <v>45239.477214016202</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D486" s="1">
+        <v>20217071</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K486" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L486" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M486" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N486" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O486" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q486" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X486" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y486" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="487" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="2">
+        <v>45239.558306817125</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D487" s="1">
+        <v>20182580</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L487" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M487" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N487" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O487" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P487" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q487" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y487" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="488" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="2">
+        <v>45239.676032939809</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D488" s="1">
+        <v>20232232</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K488" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N488" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W488" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y488" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="489" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="2">
+        <v>45239.720530833336</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D489" s="1">
+        <v>20232339</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K489" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L489" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M489" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N489" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O489" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V489" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W489" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X489" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y489" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="490" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="2">
+        <v>45239.888884641201</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D490" s="1">
+        <v>20233903</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K490" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y490" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="491" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="2">
+        <v>45239.910877060189</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D491" s="1">
+        <v>20212233</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K491" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L491" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M491" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N491" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O491" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P491" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q491" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V491" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y491" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="492" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="2">
+        <v>45239.956817847225</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D492" s="1">
+        <v>20222714</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K492" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O492" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y492" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="493" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="2">
+        <v>45239.963369317134</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D493" s="1">
+        <v>20232412</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K493" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L493" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M493" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N493" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q493" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X493" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y493" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="494" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="2">
+        <v>45239.965859768519</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D494" s="1">
+        <v>20232969</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y494" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="495" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="2">
+        <v>45239.975722453702</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D495" s="1">
+        <v>20191508</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K495" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L495" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M495" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N495" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O495" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y495" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="496" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="2">
+        <v>45240.0134191088</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D496" s="1">
+        <v>20233936</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y496" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="497" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="2">
+        <v>45240.043984710646</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D497" s="1">
+        <v>20223047</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M497" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N497" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O497" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P497" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q497" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R497" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S497" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T497" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U497" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V497" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W497" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X497" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y497" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="498" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A498" s="2">
+        <v>45240.052905833334</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D498" s="1">
+        <v>20233050</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K498" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L498" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M498" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N498" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O498" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q498" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R498" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U498" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V498" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W498" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y498" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="499" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="2">
+        <v>45240.091931215276</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D499" s="1">
+        <v>20202945</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O499" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P499" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q499" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R499" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S499" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T499" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U499" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V499" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W499" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X499" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y499" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="500" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A500" s="2">
+        <v>45240.11812861111</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D500" s="1">
+        <v>20236733</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J500" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K500" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L500" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M500" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N500" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O500" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P500" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q500" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R500" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S500" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T500" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U500" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V500" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W500" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X500" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y500" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="501" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="2">
+        <v>45240.167914907404</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D501" s="1">
+        <v>20221728</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J501" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K501" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U501" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V501" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W501" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y501" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/food_plan_231030.xlsx
+++ b/R/data/food_plan_231030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA4781-8F56-D147-BFE3-C099CF4B9D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB02ED-CC9C-DD49-99C4-474AEA987172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46040" yWindow="500" windowWidth="41960" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11525" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12192" uniqueCount="1176">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3369,6 +3369,186 @@
   </si>
   <si>
     <t>조수빈</t>
+  </si>
+  <si>
+    <t>minjae0812@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 빅데이터전공</t>
+  </si>
+  <si>
+    <t>주민재</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
+  </si>
+  <si>
+    <t>zdfxd3611@naver.com</t>
+  </si>
+  <si>
+    <t>이현태</t>
+  </si>
+  <si>
+    <t>soengheun2004@gmail.com</t>
+  </si>
+  <si>
+    <t>지성흔</t>
+  </si>
+  <si>
+    <t>year0309@naver.com</t>
+  </si>
+  <si>
+    <t>박소희</t>
+  </si>
+  <si>
+    <t>aktnftk3520@naver.com</t>
+  </si>
+  <si>
+    <t>어수련</t>
+  </si>
+  <si>
+    <t>dlruddk9@naver.com</t>
+  </si>
+  <si>
+    <t>이경아</t>
+  </si>
+  <si>
+    <t>sjy01041864550@gmail.com</t>
+  </si>
+  <si>
+    <t>서진영</t>
+  </si>
+  <si>
+    <t>shdbsgh0305@naver.com</t>
+  </si>
+  <si>
+    <t>노윤호</t>
+  </si>
+  <si>
+    <t>osy2858@gmail.com</t>
+  </si>
+  <si>
+    <t>오수연</t>
+  </si>
+  <si>
+    <t>won993456@naver.com</t>
+  </si>
+  <si>
+    <t>정경원</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>gjska1020@naver.com</t>
+  </si>
+  <si>
+    <t>허남훈</t>
+  </si>
+  <si>
+    <t>chaeyun7206@gmail.com</t>
+  </si>
+  <si>
+    <t>배채윤</t>
+  </si>
+  <si>
+    <t>rlawlsvy234@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>김진표</t>
+  </si>
+  <si>
+    <t>khjkhj0314@naver.com</t>
+  </si>
+  <si>
+    <t>김현종</t>
+  </si>
+  <si>
+    <t>yglee135766@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤구</t>
+  </si>
+  <si>
+    <t>qkqch128@naver.com</t>
+  </si>
+  <si>
+    <t>반초원</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>psm4155@gmail.com</t>
+  </si>
+  <si>
+    <t>박진주</t>
+  </si>
+  <si>
+    <t>sumin102573@naver.com</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>rjsdnjs0711@gmail.com</t>
+  </si>
+  <si>
+    <t>서건원</t>
+  </si>
+  <si>
+    <t>psb5150@naver.com</t>
+  </si>
+  <si>
+    <t>박수빈</t>
+  </si>
+  <si>
+    <t>coolsw98@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부 정보법과학전공</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>audwlswlghd7@naver.com</t>
+  </si>
+  <si>
+    <t>신명진</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>이경보</t>
+  </si>
+  <si>
+    <t>kimyebin0628@naver.com</t>
+  </si>
+  <si>
+    <t>김예빈</t>
+  </si>
+  <si>
+    <t>jhs120600@naver.com</t>
+  </si>
+  <si>
+    <t>장현성</t>
   </si>
 </sst>
 </file>
@@ -3642,11 +3822,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y501"/>
+  <dimension ref="A1:Y530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E506" sqref="E506"/>
+      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D541" sqref="D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42231,6 +42411,2239 @@
         <v>30</v>
       </c>
     </row>
+    <row r="502" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="2">
+        <v>45240.326038518513</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D502" s="1">
+        <v>20215249</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J502" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y502" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="503" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="2">
+        <v>45240.378938865746</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D503" s="1">
+        <v>20232328</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M503" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O503" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W503" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X503" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y503" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="504" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="2">
+        <v>45240.450272499998</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D504" s="1">
+        <v>20205239</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J504" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K504" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L504" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M504" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N504" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O504" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q504" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R504" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V504" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y504" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="505" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="2">
+        <v>45240.472777442134</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D505" s="1">
+        <v>20234151</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J505" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K505" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L505" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M505" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N505" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O505" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q505" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W505" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X505" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y505" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="2">
+        <v>45240.568915995369</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D506" s="1">
+        <v>20222950</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M506" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P506" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q506" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R506" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S506" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T506" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U506" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V506" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W506" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X506" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y506" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="507" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="2">
+        <v>45240.589995567134</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D507" s="1">
+        <v>20236628</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K507" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O507" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W507" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X507" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y507" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="508" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="2">
+        <v>45240.623226932876</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D508" s="1">
+        <v>20212342</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y508" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="509" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="2">
+        <v>45240.62730388889</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D509" s="1">
+        <v>20236620</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J509" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K509" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L509" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M509" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N509" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O509" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P509" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q509" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R509" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S509" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T509" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U509" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V509" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W509" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X509" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y509" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="510" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="2">
+        <v>45240.635871018516</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D510" s="1">
+        <v>20231710</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H510" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J510" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K510" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L510" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M510" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N510" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O510" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P510" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q510" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R510" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S510" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T510" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y510" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="511" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="2">
+        <v>45240.679034212968</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D511" s="1">
+        <v>20233826</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N511" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y511" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="512" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="2">
+        <v>45240.681857662035</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D512" s="1">
+        <v>20181095</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P512" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q512" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R512" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S512" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T512" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U512" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V512" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W512" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X512" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y512" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="513" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="2">
+        <v>45240.686067430557</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D513" s="1">
+        <v>20232508</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M513" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N513" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P513" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q513" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R513" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S513" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T513" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U513" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V513" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W513" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X513" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y513" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="514" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="2">
+        <v>45240.691027662033</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D514" s="1">
+        <v>20206644</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I514" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J514" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M514" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P514" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q514" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R514" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S514" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T514" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U514" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V514" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W514" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X514" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y514" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="515" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="2">
+        <v>45240.829795393518</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D515" s="1">
+        <v>20233932</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M515" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N515" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P515" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q515" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R515" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S515" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T515" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U515" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V515" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W515" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X515" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y515" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="516" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="2">
+        <v>45240.839127268518</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D516" s="1">
+        <v>20193316</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M516" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N516" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P516" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q516" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R516" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S516" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T516" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U516" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V516" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W516" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X516" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y516" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="517" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="2">
+        <v>45240.857892812499</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D517" s="1">
+        <v>20235155</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y517" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="518" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="2">
+        <v>45240.909622800929</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D518" s="1">
+        <v>20193532</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P518" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q518" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R518" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S518" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T518" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U518" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V518" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W518" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X518" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y518" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="519" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="2">
+        <v>45240.917891539357</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D519" s="1">
+        <v>20203411</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J519" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L519" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N519" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O519" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P519" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q519" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R519" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S519" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T519" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U519" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V519" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W519" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X519" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y519" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="520" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="2">
+        <v>45240.940785208339</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D520" s="1">
+        <v>20233353</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J520" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K520" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O520" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P520" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q520" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R520" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S520" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T520" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U520" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V520" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W520" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X520" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y520" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="521" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="2">
+        <v>45240.962679745367</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D521" s="1">
+        <v>20231518</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M521" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N521" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W521" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y521" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="522" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="2">
+        <v>45240.979751342587</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D522" s="1">
+        <v>20212922</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J522" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K522" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L522" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M522" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N522" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O522" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P522" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q522" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R522" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S522" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T522" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U522" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V522" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W522" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X522" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y522" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="523" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="2">
+        <v>45241.017971018518</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D523" s="1">
+        <v>20223324</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M523" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N523" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O523" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P523" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q523" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R523" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S523" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T523" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U523" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V523" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W523" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X523" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y523" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="524" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="2">
+        <v>45241.018501168983</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D524" s="1">
+        <v>20192870</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M524" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O524" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y524" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="525" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="2">
+        <v>45241.039779212966</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D525" s="1">
+        <v>20206410</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K525" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O525" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U525" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y525" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="526" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="2">
+        <v>45241.060440381945</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D526" s="1">
+        <v>20222968</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y526" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="527" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="2">
+        <v>45241.082257106478</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D527" s="1">
+        <v>20192902</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J527" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K527" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L527" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M527" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N527" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O527" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P527" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q527" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R527" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S527" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T527" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U527" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V527" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W527" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X527" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y527" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="528" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="2">
+        <v>45241.102967280094</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D528" s="1">
+        <v>20233417</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J528" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L528" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M528" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N528" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O528" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P528" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q528" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R528" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S528" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T528" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U528" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V528" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W528" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X528" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y528" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="529" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="2">
+        <v>45241.11496042824</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D529" s="1">
+        <v>20202711</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L529" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M529" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N529" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O529" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P529" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q529" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R529" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S529" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T529" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U529" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V529" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W529" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X529" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y529" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="530" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="2">
+        <v>45241.277000347225</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D530" s="1">
+        <v>20233344</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J530" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K530" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L530" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M530" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N530" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O530" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P530" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q530" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R530" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S530" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T530" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U530" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V530" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W530" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X530" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y530" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/food_plan_231030.xlsx
+++ b/R/data/food_plan_231030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB02ED-CC9C-DD49-99C4-474AEA987172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9214F-70CF-7F4E-A2FA-25E2ED15C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46040" yWindow="500" windowWidth="41960" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12192" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12744" uniqueCount="1227">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3549,6 +3549,159 @@
   </si>
   <si>
     <t>장현성</t>
+  </si>
+  <si>
+    <t>dnjsdnuni@gmail.com</t>
+  </si>
+  <si>
+    <t>홍희선</t>
+  </si>
+  <si>
+    <t>dennis121691@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크전공</t>
+  </si>
+  <si>
+    <t>aj4497@naver.com</t>
+  </si>
+  <si>
+    <t>안연지</t>
+  </si>
+  <si>
+    <t>dms95123@naver.com</t>
+  </si>
+  <si>
+    <t>김은별</t>
+  </si>
+  <si>
+    <t>jisung5549@naver.com</t>
+  </si>
+  <si>
+    <t>송지성</t>
+  </si>
+  <si>
+    <t>wlalsdlcjm4@naver.com</t>
+  </si>
+  <si>
+    <t>차지민</t>
+  </si>
+  <si>
+    <t>kimyugyeong59@naver.com</t>
+  </si>
+  <si>
+    <t>김유경</t>
+  </si>
+  <si>
+    <t>daewon4223@gmail.com</t>
+  </si>
+  <si>
+    <t>이대원</t>
+  </si>
+  <si>
+    <t>kwakyeeun624@naver.com</t>
+  </si>
+  <si>
+    <t>곽예은</t>
+  </si>
+  <si>
+    <t>hogin0912@naver.com</t>
+  </si>
+  <si>
+    <t>신호진</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>junchan1223@naver.com</t>
+  </si>
+  <si>
+    <t>최찬현</t>
+  </si>
+  <si>
+    <t>dbstn5721@naver.com</t>
+  </si>
+  <si>
+    <t>김윤수</t>
+  </si>
+  <si>
+    <t>chaeseungwoo99@gmail.com</t>
+  </si>
+  <si>
+    <t>식품영양</t>
+  </si>
+  <si>
+    <t>채승우</t>
+  </si>
+  <si>
+    <t>lsyun5050@naver.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>mkdaniel2020@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>권다넬</t>
+  </si>
+  <si>
+    <t>ryan.kang04@gmail.com</t>
+  </si>
+  <si>
+    <t>강우석</t>
+  </si>
+  <si>
+    <t>cupholderr100@gmail.com</t>
+  </si>
+  <si>
+    <t>홍민지</t>
+  </si>
+  <si>
+    <t>ryuthgud@naver.com</t>
+  </si>
+  <si>
+    <t>류소형</t>
+  </si>
+  <si>
+    <t>noble2755@naver.com</t>
+  </si>
+  <si>
+    <t>김정기</t>
+  </si>
+  <si>
+    <t>sjm3756@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>서장민</t>
+  </si>
+  <si>
+    <t>20235130@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김상윤</t>
+  </si>
+  <si>
+    <t>plzmxn@naver.com</t>
+  </si>
+  <si>
+    <t>현상희</t>
+  </si>
+  <si>
+    <t>h20205164@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박건웅</t>
   </si>
 </sst>
 </file>
@@ -3822,11 +3975,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y530"/>
+  <dimension ref="A1:Y554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D541" sqref="D541"/>
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E558" sqref="E558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -44644,6 +44797,1854 @@
         <v>30</v>
       </c>
     </row>
+    <row r="531" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="2">
+        <v>45241.365059305557</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D531" s="1">
+        <v>20233969</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P531" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q531" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R531" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S531" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T531" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U531" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V531" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W531" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X531" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y531" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="532" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="2">
+        <v>45241.440258773146</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D532" s="1">
+        <v>20203224</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P532" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q532" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R532" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S532" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T532" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U532" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V532" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W532" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X532" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y532" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="533" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="2">
+        <v>45241.526955011577</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D533" s="1">
+        <v>20233326</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J533" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K533" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L533" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M533" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N533" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O533" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q533" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y533" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="534" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="2">
+        <v>45241.535330081024</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D534" s="1">
+        <v>20232317</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J534" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K534" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L534" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M534" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N534" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O534" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P534" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q534" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R534" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S534" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T534" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U534" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V534" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W534" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X534" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y534" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="535" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="2">
+        <v>45241.539318692128</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D535" s="1">
+        <v>20222970</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J535" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K535" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L535" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M535" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N535" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O535" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P535" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q535" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R535" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S535" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T535" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U535" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V535" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W535" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X535" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y535" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="536" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="2">
+        <v>45241.568153645829</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D536" s="1">
+        <v>20236296</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L536" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M536" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P536" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q536" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R536" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S536" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T536" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U536" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V536" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W536" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X536" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y536" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="537" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="2">
+        <v>45241.576292083337</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D537" s="1">
+        <v>20232521</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P537" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q537" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R537" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S537" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T537" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U537" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V537" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W537" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X537" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y537" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="538" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="2">
+        <v>45241.587503715273</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D538" s="1">
+        <v>20235224</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J538" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L538" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M538" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N538" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O538" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y538" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="539" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="2">
+        <v>45241.598129803242</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D539" s="1">
+        <v>20236204</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L539" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M539" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q539" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U539" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V539" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y539" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="540" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="2">
+        <v>45241.634584837964</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D540" s="1">
+        <v>20232829</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y540" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="541" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="2">
+        <v>45241.635096550926</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D541" s="1">
+        <v>20231201</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K541" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L541" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P541" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q541" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R541" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S541" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T541" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U541" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V541" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W541" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X541" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y541" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="542" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="2">
+        <v>45241.63681546296</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D542" s="1">
+        <v>20236300</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J542" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P542" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q542" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R542" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S542" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T542" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U542" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V542" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W542" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X542" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y542" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="543" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="2">
+        <v>45241.64093267361</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D543" s="1">
+        <v>20183212</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y543" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="544" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="2">
+        <v>45241.647100092596</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D544" s="1">
+        <v>20183845</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O544" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y544" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="545" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="2">
+        <v>45241.661115289353</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D545" s="1">
+        <v>20232561</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J545" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K545" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L545" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M545" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N545" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O545" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q545" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T545" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y545" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="546" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="2">
+        <v>45241.688759097218</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D546" s="1">
+        <v>20226403</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J546" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K546" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L546" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M546" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N546" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O546" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q546" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V546" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W546" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y546" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="547" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="2">
+        <v>45241.697160358795</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D547" s="1">
+        <v>20235105</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y547" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="548" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="2">
+        <v>45241.700000219906</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D548" s="1">
+        <v>20232592</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J548" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M548" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N548" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P548" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q548" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R548" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S548" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T548" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U548" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V548" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W548" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X548" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y548" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="549" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="2">
+        <v>45241.70134068287</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D549" s="1">
+        <v>20232947</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J549" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K549" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L549" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M549" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N549" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O549" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y549" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="550" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="2">
+        <v>45241.717206770831</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D550" s="1">
+        <v>20233211</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N550" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O550" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P550" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q550" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R550" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S550" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T550" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U550" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V550" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W550" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X550" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y550" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="551" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="2">
+        <v>45241.722666273148</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D551" s="1">
+        <v>20163118</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J551" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K551" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L551" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M551" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N551" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O551" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y551" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="552" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="2">
+        <v>45241.735593854166</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D552" s="1">
+        <v>20235130</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y552" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="553" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="2">
+        <v>45241.746420324074</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D553" s="1">
+        <v>20232642</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P553" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q553" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R553" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S553" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T553" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U553" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V553" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W553" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X553" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y553" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="554" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="2">
+        <v>45241.747074236111</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D554" s="1">
+        <v>20205164</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P554" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q554" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R554" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S554" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T554" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U554" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V554" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W554" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X554" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y554" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/food_plan_231030.xlsx
+++ b/R/data/food_plan_231030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9214F-70CF-7F4E-A2FA-25E2ED15C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2F864B-0626-C14F-BB20-28511DB13045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46040" yWindow="500" windowWidth="41960" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46040" yWindow="520" windowWidth="41960" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12744" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13526" uniqueCount="1299">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3702,6 +3702,222 @@
   </si>
   <si>
     <t>박건웅</t>
+  </si>
+  <si>
+    <t>gggp1224@naver.com</t>
+  </si>
+  <si>
+    <t>임재우</t>
+  </si>
+  <si>
+    <t>jinyoung05503@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>qwop7845@naver.com</t>
+  </si>
+  <si>
+    <t>최시연</t>
+  </si>
+  <si>
+    <t>zzolle424@naver.com</t>
+  </si>
+  <si>
+    <t>전지호</t>
+  </si>
+  <si>
+    <t>20226760@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>Ai의료융합</t>
+  </si>
+  <si>
+    <t>이민홍</t>
+  </si>
+  <si>
+    <t>taeseo12@naver.com</t>
+  </si>
+  <si>
+    <t>전자공학과</t>
+  </si>
+  <si>
+    <t>박태서</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>ssabaljukinsaekki@gmail.com</t>
+  </si>
+  <si>
+    <t>정민석</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>gwkang0330@gmail.com</t>
+  </si>
+  <si>
+    <t>강건우</t>
+  </si>
+  <si>
+    <t>ruye0114@naver.com</t>
+  </si>
+  <si>
+    <t>류영서</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>gawon9707@gmail.com</t>
+  </si>
+  <si>
+    <t>이가원</t>
+  </si>
+  <si>
+    <t>taeho4756@naver.com</t>
+  </si>
+  <si>
+    <t>조태호</t>
+  </si>
+  <si>
+    <t>khm1785@naver.com</t>
+  </si>
+  <si>
+    <t>김효민</t>
+  </si>
+  <si>
+    <t>skaguddl92@naver.com</t>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+  </si>
+  <si>
+    <t>김남형</t>
+  </si>
+  <si>
+    <t>sinjisu030426@gmail.com</t>
+  </si>
+  <si>
+    <t>신지수</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>wooyj0817@naver.com</t>
+  </si>
+  <si>
+    <t>우연정</t>
+  </si>
+  <si>
+    <t>hankyo777@naver.com</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
+    <t>wusl0327@naver.com</t>
+  </si>
+  <si>
+    <t>신지연</t>
+  </si>
+  <si>
+    <t>kmspse0405@naver.com</t>
+  </si>
+  <si>
+    <t>박세은</t>
+  </si>
+  <si>
+    <t>hwangyejin2000@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>황예진</t>
+  </si>
+  <si>
+    <t>jay003@naver.com</t>
+  </si>
+  <si>
+    <t>qwelkjzxc00000@gmail.com</t>
+  </si>
+  <si>
+    <t>엄서진</t>
+  </si>
+  <si>
+    <t>bldrlsld@gmail.com</t>
+  </si>
+  <si>
+    <t>김규빈</t>
+  </si>
+  <si>
+    <t>h20221203@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>권민주</t>
+  </si>
+  <si>
+    <t>cho2scho2s@gmail.com</t>
+  </si>
+  <si>
+    <t>조은해</t>
+  </si>
+  <si>
+    <t>tjdbs6201305@naver.com</t>
+  </si>
+  <si>
+    <t>송서윤</t>
+  </si>
+  <si>
+    <t>ahn12025759@gmail.com</t>
+  </si>
+  <si>
+    <t>안채현</t>
+  </si>
+  <si>
+    <t>was193567@gmail.com</t>
+  </si>
+  <si>
+    <t>권유진</t>
+  </si>
+  <si>
+    <t>vertigojohn95@gmail.com</t>
+  </si>
+  <si>
+    <t>김정후</t>
+  </si>
+  <si>
+    <t>ee2243@naver.com</t>
+  </si>
+  <si>
+    <t>정주연</t>
+  </si>
+  <si>
+    <t>sungjuwon1@gmail.com</t>
+  </si>
+  <si>
+    <t>asfgdsgf234@handd.com</t>
   </si>
 </sst>
 </file>
@@ -3975,11 +4191,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y554"/>
+  <dimension ref="A1:Y588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E558" sqref="E558"/>
+      <pane ySplit="1" topLeftCell="A540" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D594" sqref="D594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46645,6 +46861,2624 @@
         <v>35</v>
       </c>
     </row>
+    <row r="555" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A555" s="2">
+        <v>45241.757701238428</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D555" s="1">
+        <v>20202742</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J555" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K555" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L555" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M555" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N555" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O555" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P555" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q555" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R555" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S555" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T555" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U555" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V555" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W555" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X555" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y555" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="556" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A556" s="2">
+        <v>45241.763409560182</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D556" s="1">
+        <v>20233534</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L556" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O556" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P556" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q556" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R556" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S556" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T556" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U556" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V556" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W556" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X556" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y556" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="557" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A557" s="2">
+        <v>45241.766788923611</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D557" s="1">
+        <v>20236638</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L557" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M557" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N557" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O557" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P557" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q557" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R557" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S557" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T557" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U557" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V557" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W557" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X557" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y557" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="558" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A558" s="2">
+        <v>45241.775609687495</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D558" s="1">
+        <v>20233030</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K558" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L558" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M558" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N558" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O558" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q558" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y558" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="559" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A559" s="2">
+        <v>45241.805383067127</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D559" s="1">
+        <v>20226760</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K559" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L559" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M559" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N559" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O559" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y559" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="560" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="2">
+        <v>45241.822093136579</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D560" s="1">
+        <v>20175224</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J560" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K560" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L560" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O560" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P560" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q560" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R560" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S560" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T560" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U560" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V560" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W560" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X560" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y560" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="561" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A561" s="2">
+        <v>45241.832326284726</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D561" s="1">
+        <v>20192319</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J561" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M561" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R561" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y561" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="562" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A562" s="2">
+        <v>45241.869038854165</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D562" s="1">
+        <v>20235252</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L562" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O562" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y562" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="563" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A563" s="2">
+        <v>45241.872530231485</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D563" s="1">
+        <v>20233934</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L563" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M563" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P563" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q563" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R563" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S563" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T563" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U563" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V563" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W563" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X563" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y563" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="564" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A564" s="2">
+        <v>45241.878572002315</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D564" s="1">
+        <v>20235101</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y564" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="565" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A565" s="2">
+        <v>45241.878748449075</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D565" s="1">
+        <v>20232362</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O565" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q565" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y565" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="566" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A566" s="2">
+        <v>45241.915913645833</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D566" s="1">
+        <v>20232214</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O566" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y566" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="567" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A567" s="2">
+        <v>45241.92353803241</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D567" s="1">
+        <v>20215173</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L567" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P567" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q567" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R567" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S567" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T567" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U567" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V567" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W567" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X567" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y567" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="568" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A568" s="2">
+        <v>45241.931450567128</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D568" s="1">
+        <v>20225207</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J568" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K568" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L568" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O568" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P568" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q568" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R568" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S568" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T568" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U568" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V568" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W568" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X568" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y568" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="569" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A569" s="2">
+        <v>45241.942900509261</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D569" s="1">
+        <v>20213732</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P569" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q569" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R569" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S569" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T569" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U569" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V569" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W569" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X569" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y569" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="570" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A570" s="2">
+        <v>45241.94922844907</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D570" s="1">
+        <v>20236233</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y570" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="571" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A571" s="2">
+        <v>45241.988099351853</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D571" s="1">
+        <v>20175110</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M571" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N571" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O571" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P571" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q571" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R571" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S571" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T571" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U571" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V571" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W571" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X571" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y571" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="572" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A572" s="2">
+        <v>45241.994853634256</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D572" s="1">
+        <v>20222728</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O572" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P572" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q572" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R572" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S572" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T572" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U572" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V572" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W572" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X572" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y572" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="573" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A573" s="2">
+        <v>45241.999659733796</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D573" s="1">
+        <v>20235122</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K573" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L573" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M573" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N573" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O573" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T573" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V573" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W573" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X573" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y573" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="574" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A574" s="2">
+        <v>45242.008215879629</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D574" s="1">
+        <v>20205265</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P574" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q574" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R574" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X574" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y574" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="575" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A575" s="2">
+        <v>45242.010906712967</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D575" s="1">
+        <v>20212986</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J575" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K575" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L575" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O575" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P575" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q575" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R575" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S575" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T575" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U575" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V575" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W575" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X575" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y575" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="576" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A576" s="2">
+        <v>45242.017409652777</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D576" s="1">
+        <v>20233244</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L576" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y576" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="577" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A577" s="2">
+        <v>45242.026866400462</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D577" s="1">
+        <v>20193934</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O577" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P577" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q577" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R577" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S577" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T577" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U577" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V577" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W577" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X577" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y577" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="578" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A578" s="2">
+        <v>45242.027077013889</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D578" s="1">
+        <v>20203515</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P578" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q578" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R578" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S578" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T578" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U578" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V578" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W578" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X578" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y578" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A579" s="2">
+        <v>45242.032223553237</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D579" s="1">
+        <v>20192241</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M579" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N579" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P579" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q579" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R579" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S579" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T579" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U579" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V579" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W579" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X579" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y579" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A580" s="2">
+        <v>45242.039215358796</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D580" s="1">
+        <v>20232310</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q580" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W580" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y580" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="581" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A581" s="2">
+        <v>45242.050671886573</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D581" s="1">
+        <v>20211051</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P581" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q581" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R581" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S581" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T581" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U581" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V581" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W581" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X581" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y581" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A582" s="2">
+        <v>45242.056278206015</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D582" s="1">
+        <v>20221603</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K582" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M582" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N582" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y582" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A583" s="2">
+        <v>45242.057601689812</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D583" s="1">
+        <v>20221203</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I583" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J583" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K583" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L583" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M583" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N583" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O583" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y583" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A584" s="2">
+        <v>45242.058093356478</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D584" s="1">
+        <v>20232364</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I584" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J584" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K584" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L584" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M584" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N584" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O584" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P584" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q584" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R584" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S584" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T584" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U584" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V584" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W584" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X584" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y584" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A585" s="2">
+        <v>45242.081856203702</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D585" s="1">
+        <v>20232545</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K585" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M585" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N585" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P585" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q585" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R585" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T585" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y585" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="586" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="2">
+        <v>45242.089835474537</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D586" s="1">
+        <v>20217132</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J586" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K586" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L586" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M586" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N586" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O586" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P586" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q586" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U586" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V586" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y586" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="2">
+        <v>45242.140254988422</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D587" s="1">
+        <v>20233303</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K587" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M587" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O587" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P587" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q587" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R587" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S587" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T587" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U587" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V587" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W587" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X587" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y587" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A588" s="2">
+        <v>45242.201162187499</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D588" s="1">
+        <v>20182517</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J588" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K588" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L588" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M588" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N588" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O588" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q588" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W588" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y588" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/food_plan_231030.xlsx
+++ b/R/data/food_plan_231030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2F864B-0626-C14F-BB20-28511DB13045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80CA706-6553-9D42-9028-0CA5C9CE8E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46040" yWindow="520" windowWidth="41960" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51100" yWindow="2360" windowWidth="41960" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13526" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14262" uniqueCount="1364">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3918,6 +3918,201 @@
   </si>
   <si>
     <t>asfgdsgf234@handd.com</t>
+  </si>
+  <si>
+    <t>zzx3488@naver.com</t>
+  </si>
+  <si>
+    <t>이인혁</t>
+  </si>
+  <si>
+    <t>rlagkdud114@naver.com</t>
+  </si>
+  <si>
+    <t>김하영</t>
+  </si>
+  <si>
+    <t>junwon5424@naver.com</t>
+  </si>
+  <si>
+    <t>미래융합쿨</t>
+  </si>
+  <si>
+    <t>김준원</t>
+  </si>
+  <si>
+    <t>tjdals041122@gmail.com</t>
+  </si>
+  <si>
+    <t>전성민</t>
+  </si>
+  <si>
+    <t>lma240228@gmail.com</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>jsubin0424@gmail.com</t>
+  </si>
+  <si>
+    <t>정수빈</t>
+  </si>
+  <si>
+    <t>minjeong7432@gmail.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>amdo0421@naver.com</t>
+  </si>
+  <si>
+    <t>이은빈</t>
+  </si>
+  <si>
+    <t>juhee040413@naver.com</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>sdw0820@gmail.com</t>
+  </si>
+  <si>
+    <t>성동휘</t>
+  </si>
+  <si>
+    <t>chant1238762@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>yeji28667@naver.com</t>
+  </si>
+  <si>
+    <t>신예지</t>
+  </si>
+  <si>
+    <t>zmcnvb@naver.com</t>
+  </si>
+  <si>
+    <t>02c06c@naver.com</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>sungyeon0803@gmail.com</t>
+  </si>
+  <si>
+    <t>최성연</t>
+  </si>
+  <si>
+    <t>luv7253@naver.com</t>
+  </si>
+  <si>
+    <t>임아리</t>
+  </si>
+  <si>
+    <t>dlwjdgh0808@naver.com</t>
+  </si>
+  <si>
+    <t>이정호</t>
+  </si>
+  <si>
+    <t>20211705@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>러시아어</t>
+  </si>
+  <si>
+    <t>김승겸</t>
+  </si>
+  <si>
+    <t>yena8546@naver.com</t>
+  </si>
+  <si>
+    <t>장예나</t>
+  </si>
+  <si>
+    <t>magicsung98@naver.com</t>
+  </si>
+  <si>
+    <t>김동훈</t>
+  </si>
+  <si>
+    <t>tkdgns8006@naver.com</t>
+  </si>
+  <si>
+    <t>이상훈</t>
+  </si>
+  <si>
+    <t>werty1082@naver.com</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>sykim09050905@gmail.com</t>
+  </si>
+  <si>
+    <t>김승연</t>
+  </si>
+  <si>
+    <t>unsc2438@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬환</t>
+  </si>
+  <si>
+    <t>dlwlgy0001@naver.com</t>
+  </si>
+  <si>
+    <t>이지효</t>
+  </si>
+  <si>
+    <t>gaddong0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김민균</t>
+  </si>
+  <si>
+    <t>jessica7096@naver.com</t>
+  </si>
+  <si>
+    <t>김보영</t>
+  </si>
+  <si>
+    <t>hyunjong9951@gmail.com</t>
+  </si>
+  <si>
+    <t>디스플레이학과</t>
+  </si>
+  <si>
+    <t>hyunseo4370@gmail.com</t>
+  </si>
+  <si>
+    <t>장현서</t>
+  </si>
+  <si>
+    <t>dbwjdrms21@naver.com</t>
+  </si>
+  <si>
+    <t>유정근</t>
+  </si>
+  <si>
+    <t>donguk3121@gmail.com</t>
+  </si>
+  <si>
+    <t>신동욱</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
   </si>
 </sst>
 </file>
@@ -4191,11 +4386,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y588"/>
+  <dimension ref="A1:Y620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A540" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D594" sqref="D594"/>
+      <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F626" sqref="F626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -49479,6 +49674,2470 @@
         <v>36</v>
       </c>
     </row>
+    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A589" s="2">
+        <v>45242.337032870375</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D589" s="1">
+        <v>20192953</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J589" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K589" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L589" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M589" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N589" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O589" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q589" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R589" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W589" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y589" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="590" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A590" s="2">
+        <v>45242.338895474539</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D590" s="1">
+        <v>20221026</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M590" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O590" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y590" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="591" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A591" s="2">
+        <v>45242.34813643519</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D591" s="1">
+        <v>20226613</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y591" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="592" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A592" s="2">
+        <v>45242.371664918981</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D592" s="1">
+        <v>20232357</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J592" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K592" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L592" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M592" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N592" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O592" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R592" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V592" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y592" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A593" s="2">
+        <v>45242.381641840278</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D593" s="1">
+        <v>20236608</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J593" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K593" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L593" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M593" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N593" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O593" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q593" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W593" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y593" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A594" s="2">
+        <v>45242.399776122686</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D594" s="1">
+        <v>20222355</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y594" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A595" s="2">
+        <v>45242.414133217593</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D595" s="1">
+        <v>20236217</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K595" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L595" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M595" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N595" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O595" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y595" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A596" s="2">
+        <v>45242.430662094906</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D596" s="1">
+        <v>20236278</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L596" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M596" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N596" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P596" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q596" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R596" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S596" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T596" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U596" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V596" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W596" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X596" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y596" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="597" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A597" s="2">
+        <v>45242.430927442125</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D597" s="1">
+        <v>20233817</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I597" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J597" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K597" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L597" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M597" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N597" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O597" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q597" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W597" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X597" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y597" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="598" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A598" s="2">
+        <v>45242.442350625002</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D598" s="1">
+        <v>20233819</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R598" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y598" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A599" s="2">
+        <v>45242.468196550923</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D599" s="1">
+        <v>20225186</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J599" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K599" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L599" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N599" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O599" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P599" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q599" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R599" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S599" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T599" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U599" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V599" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W599" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X599" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y599" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A600" s="2">
+        <v>45242.490329826389</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D600" s="1">
+        <v>20236623</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J600" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K600" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L600" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N600" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O600" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P600" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q600" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y600" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A601" s="2">
+        <v>45242.491775497685</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D601" s="1">
+        <v>20213014</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K601" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L601" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M601" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N601" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O601" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P601" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T601" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y601" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="602" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A602" s="2">
+        <v>45242.493596817134</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D602" s="1">
+        <v>20217055</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M602" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P602" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q602" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R602" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S602" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T602" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U602" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V602" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W602" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X602" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y602" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A603" s="2">
+        <v>45242.501949780097</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D603" s="1">
+        <v>20232437</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K603" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M603" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q603" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y603" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A604" s="2">
+        <v>45242.509678495371</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D604" s="1">
+        <v>20231080</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J604" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K604" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L604" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P604" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q604" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R604" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S604" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T604" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U604" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V604" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W604" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X604" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y604" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="605" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A605" s="2">
+        <v>45242.519894409721</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D605" s="1">
+        <v>20201083</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J605" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K605" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N605" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O605" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q605" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y605" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="606" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A606" s="2">
+        <v>45242.522404201387</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D606" s="1">
+        <v>20211706</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K606" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L606" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N606" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O606" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P606" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q606" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V606" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y606" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="607" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A607" s="2">
+        <v>45242.53210167824</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D607" s="1">
+        <v>20233025</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K607" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L607" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N607" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O607" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q607" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y607" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="608" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A608" s="2">
+        <v>45242.534542951384</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D608" s="1">
+        <v>20212913</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y608" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="2">
+        <v>45242.536194282409</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D609" s="1">
+        <v>20207035</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J609" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K609" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L609" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M609" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N609" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O609" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S609" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T609" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y609" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A610" s="2">
+        <v>45242.541141377311</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D610" s="1">
+        <v>20232509</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J610" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K610" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L610" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M610" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N610" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O610" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P610" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R610" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V610" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y610" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A611" s="2">
+        <v>45242.543206250004</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D611" s="1">
+        <v>20236223</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J611" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K611" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L611" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N611" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O611" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P611" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q611" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X611" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y611" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A612" s="2">
+        <v>45242.544284432872</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D612" s="1">
+        <v>20225271</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O612" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P612" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q612" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R612" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S612" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T612" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U612" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V612" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W612" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X612" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y612" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A613" s="2">
+        <v>45242.549396736111</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D613" s="1">
+        <v>20203024</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M613" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P613" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q613" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R613" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S613" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T613" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U613" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V613" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W613" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X613" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y613" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A614" s="2">
+        <v>45242.553786354169</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D614" s="1">
+        <v>20232106</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L614" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M614" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N614" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P614" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q614" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R614" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S614" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T614" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U614" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V614" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W614" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X614" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y614" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A615" s="2">
+        <v>45242.553877557875</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D615" s="1">
+        <v>20221705</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y615" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A616" s="2">
+        <v>45242.557360844905</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D616" s="1">
+        <v>20183319</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J616" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K616" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L616" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M616" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N616" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O616" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W616" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X616" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y616" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A617" s="2">
+        <v>45242.56374258102</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D617" s="1">
+        <v>20236636</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L617" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P617" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q617" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R617" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S617" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T617" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U617" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V617" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W617" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X617" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y617" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A618" s="2">
+        <v>45242.563958067127</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D618" s="1">
+        <v>20183829</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J618" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K618" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L618" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M618" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N618" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O618" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P618" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q618" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R618" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S618" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T618" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U618" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V618" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W618" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X618" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y618" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="619" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A619" s="2">
+        <v>45242.56695054398</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D619" s="1">
+        <v>20226129</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V619" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y619" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="620" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A620" s="2">
+        <v>45242.570618240745</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D620" s="1">
+        <v>20202972</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J620" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K620" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L620" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M620" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N620" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O620" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q620" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R620" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X620" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y620" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
